--- a/Results/20221005 Full_lineSegment_100clusters.xlsx
+++ b/Results/20221005 Full_lineSegment_100clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC6B5C0-6202-403E-BF70-11A39F10FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71C932B-4C2D-4326-A03E-6F1F07D75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$0M" sheetId="3" r:id="rId1"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF33C2D-0A39-4DCC-A04A-EA7B9F0D202F}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6710,8 +6710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14A39EB-4C4E-4FCA-AF3D-76785108A3FD}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="F5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
